--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il18-Il18rap.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il18-Il18rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,93 +516,93 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.878986666666667</v>
+        <v>8.325812333333333</v>
       </c>
       <c r="H2">
-        <v>8.63696</v>
+        <v>24.977437</v>
       </c>
       <c r="I2">
-        <v>0.2331567682967092</v>
+        <v>0.8792824445743517</v>
       </c>
       <c r="J2">
-        <v>0.2331567682967092</v>
+        <v>0.8792824445743516</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>25.939101</v>
+        <v>0.03614066666666667</v>
       </c>
       <c r="N2">
-        <v>77.81730300000001</v>
+        <v>0.108422</v>
       </c>
       <c r="O2">
-        <v>0.9986086494543361</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9986086494543361</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>74.67832592432001</v>
+        <v>0.3009004082682222</v>
       </c>
       <c r="R2">
-        <v>672.1049333188801</v>
+        <v>2.708103674414</v>
       </c>
       <c r="S2">
-        <v>0.2328323654999143</v>
+        <v>0.8792824445743517</v>
       </c>
       <c r="T2">
-        <v>0.2328323654999143</v>
+        <v>0.8792824445743516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.878986666666667</v>
+        <v>1.143059</v>
       </c>
       <c r="H3">
-        <v>8.63696</v>
+        <v>3.429177</v>
       </c>
       <c r="I3">
-        <v>0.2331567682967092</v>
+        <v>0.1207175554256484</v>
       </c>
       <c r="J3">
-        <v>0.2331567682967092</v>
+        <v>0.1207175554256484</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,270 +617,22 @@
         <v>0.108422</v>
       </c>
       <c r="O3">
-        <v>0.001391350545663835</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.001391350545663835</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1040484974577778</v>
+        <v>0.04131091429933334</v>
       </c>
       <c r="R3">
-        <v>0.9364364771200001</v>
+        <v>0.371798228694</v>
       </c>
       <c r="S3">
-        <v>0.0003244027967948428</v>
+        <v>0.1207175554256484</v>
       </c>
       <c r="T3">
-        <v>0.0003244027967948428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>8.325812333333333</v>
-      </c>
-      <c r="H4">
-        <v>24.977437</v>
-      </c>
-      <c r="I4">
-        <v>0.6742717913773656</v>
-      </c>
-      <c r="J4">
-        <v>0.6742717913773655</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>25.939101</v>
-      </c>
-      <c r="N4">
-        <v>77.81730300000001</v>
-      </c>
-      <c r="O4">
-        <v>0.9986086494543361</v>
-      </c>
-      <c r="P4">
-        <v>0.9986086494543361</v>
-      </c>
-      <c r="Q4">
-        <v>215.964087021379</v>
-      </c>
-      <c r="R4">
-        <v>1943.676783192411</v>
-      </c>
-      <c r="S4">
-        <v>0.673333642952507</v>
-      </c>
-      <c r="T4">
-        <v>0.6733336429525069</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>8.325812333333333</v>
-      </c>
-      <c r="H5">
-        <v>24.977437</v>
-      </c>
-      <c r="I5">
-        <v>0.6742717913773656</v>
-      </c>
-      <c r="J5">
-        <v>0.6742717913773655</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.03614066666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.108422</v>
-      </c>
-      <c r="O5">
-        <v>0.001391350545663835</v>
-      </c>
-      <c r="P5">
-        <v>0.001391350545663835</v>
-      </c>
-      <c r="Q5">
-        <v>0.3009004082682222</v>
-      </c>
-      <c r="R5">
-        <v>2.708103674414</v>
-      </c>
-      <c r="S5">
-        <v>0.0009381484248586295</v>
-      </c>
-      <c r="T5">
-        <v>0.0009381484248586293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.143059</v>
-      </c>
-      <c r="H6">
-        <v>3.429177</v>
-      </c>
-      <c r="I6">
-        <v>0.09257144032592537</v>
-      </c>
-      <c r="J6">
-        <v>0.09257144032592536</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>25.939101</v>
-      </c>
-      <c r="N6">
-        <v>77.81730300000001</v>
-      </c>
-      <c r="O6">
-        <v>0.9986086494543361</v>
-      </c>
-      <c r="P6">
-        <v>0.9986086494543361</v>
-      </c>
-      <c r="Q6">
-        <v>29.649922849959</v>
-      </c>
-      <c r="R6">
-        <v>266.849305649631</v>
-      </c>
-      <c r="S6">
-        <v>0.09244264100191502</v>
-      </c>
-      <c r="T6">
-        <v>0.092442641001915</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.143059</v>
-      </c>
-      <c r="H7">
-        <v>3.429177</v>
-      </c>
-      <c r="I7">
-        <v>0.09257144032592537</v>
-      </c>
-      <c r="J7">
-        <v>0.09257144032592536</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.03614066666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.108422</v>
-      </c>
-      <c r="O7">
-        <v>0.001391350545663835</v>
-      </c>
-      <c r="P7">
-        <v>0.001391350545663835</v>
-      </c>
-      <c r="Q7">
-        <v>0.04131091429933334</v>
-      </c>
-      <c r="R7">
-        <v>0.371798228694</v>
-      </c>
-      <c r="S7">
-        <v>0.0001287993240103635</v>
-      </c>
-      <c r="T7">
-        <v>0.0001287993240103634</v>
+        <v>0.1207175554256484</v>
       </c>
     </row>
   </sheetData>
